--- a/학습자료/단답형/영어_복습_뜻.xlsx
+++ b/학습자료/단답형/영어_복습_뜻.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
           <t>구분</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>날짜</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -466,6 +471,11 @@
           <t>뜻</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -483,6 +493,11 @@
           <t>뜻</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -500,6 +515,11 @@
           <t>뜻</t>
         </is>
       </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -517,6 +537,11 @@
           <t>뜻</t>
         </is>
       </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -534,6 +559,11 @@
           <t>뜻</t>
         </is>
       </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -551,6 +581,11 @@
           <t>뜻</t>
         </is>
       </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -568,6 +603,11 @@
           <t>뜻</t>
         </is>
       </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -585,6 +625,11 @@
           <t>뜻</t>
         </is>
       </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -602,6 +647,11 @@
           <t>뜻</t>
         </is>
       </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -619,6 +669,11 @@
           <t>뜻</t>
         </is>
       </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -636,6 +691,11 @@
           <t>뜻</t>
         </is>
       </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -653,6 +713,11 @@
           <t>뜻</t>
         </is>
       </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -670,6 +735,11 @@
           <t>뜻</t>
         </is>
       </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -687,6 +757,11 @@
           <t>뜻</t>
         </is>
       </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -704,6 +779,11 @@
           <t>뜻</t>
         </is>
       </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -721,6 +801,11 @@
           <t>뜻</t>
         </is>
       </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -738,6 +823,11 @@
           <t>뜻</t>
         </is>
       </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -755,6 +845,11 @@
           <t>뜻</t>
         </is>
       </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -772,6 +867,11 @@
           <t>뜻</t>
         </is>
       </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -789,6 +889,11 @@
           <t>뜻</t>
         </is>
       </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -806,6 +911,11 @@
           <t>뜻</t>
         </is>
       </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -823,6 +933,11 @@
           <t>뜻</t>
         </is>
       </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -840,6 +955,11 @@
           <t>뜻</t>
         </is>
       </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -857,6 +977,11 @@
           <t>뜻</t>
         </is>
       </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -874,6 +999,11 @@
           <t>뜻</t>
         </is>
       </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -891,6 +1021,11 @@
           <t>뜻</t>
         </is>
       </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -908,6 +1043,11 @@
           <t>뜻</t>
         </is>
       </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -925,6 +1065,11 @@
           <t>뜻</t>
         </is>
       </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -942,6 +1087,11 @@
           <t>뜻</t>
         </is>
       </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -957,6 +1107,363 @@
       <c r="C31" t="inlineStr">
         <is>
           <t>뜻</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>이전</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>be susceptible to</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>~에 걸리기 쉽다, ~의 영향을 받기 쉽다</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>뜻</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>오늘</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>be suppressive</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>억압하다</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>뜻</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>오늘</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>be suspensive</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>불안하다, 확실하지 않다</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>뜻</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>오늘</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>be suspected</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>의심을 받다</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>뜻</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>오늘</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>accuse A of B</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>A를 B로 기소[고소]하다</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>뜻</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>오늘</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>attribute A to B</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>A를 B의 탓으로 돌리다</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>뜻</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>오늘</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>see off</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>배웅하다, 쫓아내다, 이기다</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>뜻</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>오늘</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>rule out</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>배제하다</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>뜻</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>오늘</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>be sentenced to</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>~의 형을 받다</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>뜻</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>오늘</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>resort to</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>~에 기대다, 의지하다</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>뜻</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>오늘</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>make up with</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>~와 화해하다</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>뜻</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>오늘</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>make away</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>도망가다</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>뜻</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>오늘</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>make over</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>양도하다, 고치다</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>뜻</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>오늘</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>make against</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>~에게 불리하게 작용하다</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>뜻</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>오늘</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>increase in</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>~에 있어서 증가하다</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>뜻</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>오늘</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>talk A out of B</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>A가 B 못하도록 설득하다</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>뜻</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>오늘</t>
         </is>
       </c>
     </row>
